--- a/data/trans_dic/P44A$sangre-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P44A$sangre-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,22 +686,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,38; 51,96</t>
+          <t>9,45; 50,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,98; 35,46</t>
+          <t>3,83; 34,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>52,9; 68,34</t>
+          <t>53,98; 68,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,01</t>
+          <t>0,0; 45,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,22 +711,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>63,76; 79,99</t>
+          <t>63,54; 80,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,08; 39,73</t>
+          <t>9,21; 40,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,73; 25,44</t>
+          <t>3,72; 27,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>60,05; 71,18</t>
+          <t>59,74; 70,85</t>
         </is>
       </c>
     </row>
@@ -795,17 +796,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,54</t>
+          <t>0,0; 37,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,07; 32,43</t>
+          <t>3,9; 33,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>55,29; 74,96</t>
+          <t>56,11; 75,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -820,22 +821,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>60,2; 79,65</t>
+          <t>60,02; 79,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,64</t>
+          <t>0,0; 26,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,27; 29,7</t>
+          <t>3,04; 28,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>60,07; 74,19</t>
+          <t>60,18; 74,07</t>
         </is>
       </c>
     </row>
@@ -905,22 +906,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,54; 56,25</t>
+          <t>18,34; 57,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,44</t>
+          <t>0,0; 26,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>59,9; 97,8</t>
+          <t>60,27; 97,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,6</t>
+          <t>0,0; 46,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -930,22 +931,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,02; 84,6</t>
+          <t>62,16; 84,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,2; 46,5</t>
+          <t>14,56; 47,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,05</t>
+          <t>0,0; 20,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>64,78; 97,15</t>
+          <t>64,23; 97,01</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,67</t>
+          <t>0,0; 18,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 18,23</t>
+          <t>1,97; 18,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>60,08; 73,21</t>
+          <t>59,72; 73,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,96</t>
+          <t>0,0; 30,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 30,84</t>
+          <t>3,79; 32,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,43; 73,95</t>
+          <t>59,65; 74,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 16,27</t>
+          <t>1,92; 15,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,79; 17,07</t>
+          <t>3,85; 17,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>61,57; 72,01</t>
+          <t>61,67; 71,51</t>
         </is>
       </c>
     </row>
@@ -1130,42 +1131,42 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,74; 30,82</t>
+          <t>3,78; 32,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>55,54; 75,81</t>
+          <t>55,88; 75,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,5</t>
+          <t>0,0; 22,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,02</t>
+          <t>0,0; 25,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,7; 76,56</t>
+          <t>64,57; 77,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,3</t>
+          <t>0,0; 19,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,56; 21,63</t>
+          <t>3,62; 20,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>63,45; 74,15</t>
+          <t>63,35; 74,23</t>
         </is>
       </c>
     </row>
@@ -1245,37 +1246,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,7; 100,0</t>
+          <t>28,32; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,09; 25,33</t>
+          <t>2,98; 25,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,75; 24,35</t>
+          <t>2,85; 25,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>64,19; 75,82</t>
+          <t>64,05; 76,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,09; 25,33</t>
+          <t>2,98; 25,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,75; 24,35</t>
+          <t>2,85; 25,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>64,27; 75,82</t>
+          <t>64,46; 76,1</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,44; 28,04</t>
+          <t>11,08; 28,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,16; 16,26</t>
+          <t>6,76; 16,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>63,47; 89,21</t>
+          <t>63,92; 90,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,56; 15,62</t>
+          <t>4,01; 15,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,8; 14,89</t>
+          <t>4,43; 15,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>67,29; 73,4</t>
+          <t>67,53; 73,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,63; 18,69</t>
+          <t>9,19; 18,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,54; 13,59</t>
+          <t>6,57; 13,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>66,62; 86,34</t>
+          <t>66,82; 86,41</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población al que le han realizado al menor una prueba de sangre oculta en heces para detectar cáncer de colon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5198</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4665</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>79338</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>53287</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7108</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4665</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>132625</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1809; 9709</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1184; 10595</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>69256; 88401</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6064</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2078</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>46809; 59019</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2997; 13225</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1562; 11634</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>120649; 143084</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4052</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>54652</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>34672</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4052</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>89323</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6037</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1051; 9036</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>46459; 62266</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1931</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1625</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>29407; 38921</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6622</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>980; 9050</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>79309; 97612</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10378</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1631</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>298372</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>24480</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11455</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1631</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>322851</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5372; 16902</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7594</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>198928; 323308</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5104</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1710</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>20259; 27682</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5850; 19146</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7429</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>232944; 351794</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2048</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3909</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>106499</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1107</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3044</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>57201</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3155</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6953</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>163700</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6697</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>973; 9282</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>95046; 116325</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4405</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>921; 7827</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>50995; 63278</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>972; 7637</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2836; 12972</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>150875; 174940</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2817</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>44302</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2219</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>78339</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5037</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>122642</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1758</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>879; 7498</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>37164; 50017</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6176</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7006</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>71562; 85513</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6926</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1835; 10481</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>112351; 131642</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2875</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3101</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4293</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>84361</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3101</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4293</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>87236</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1100; 3886</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>952; 8172</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1124; 10095</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>76720; 91178</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>952; 8172</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1124; 10095</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>79719; 94112</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1067</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>19647</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>17075</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>586037</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>9152</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>9556</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>332340</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>28799</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>26631</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>918377</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>12122; 30912</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>10801; 26726</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>492661; 699068</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>4246; 16376</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>5091; 17486</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>318300; 347255</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>19794; 40444</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>18047; 37851</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>829998; 1073250</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P44A$sangre-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P44A$sangre-Clase-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población al que le han realizado al menor una prueba de sangre oculta en heces para detectar cáncer de colon</t>
+          <t>Población a la que le han realizado al menos una prueba de sangre oculta en heces para detectar cáncer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población al que le han realizado al menor una prueba de sangre oculta en heces para detectar cáncer de colon</t>
+          <t>Población a la que le han realizado al menos una prueba de sangre oculta en heces para detectar cáncer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
